--- a/Data/Contact_tracking.xlsx
+++ b/Data/Contact_tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="500" windowWidth="23560" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="25600" yWindow="-680" windowWidth="38400" windowHeight="21600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Targets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myself" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Targets" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Myself" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +46,14 @@
       <color theme="1"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -60,7 +68,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -90,11 +98,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -105,12 +125,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -127,9 +141,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -144,11 +155,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -506,15 +524,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -522,106 +540,126 @@
     <col width="13" bestFit="1" customWidth="1" min="1" max="4"/>
     <col width="8.1640625" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="34.1640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.83203125" bestFit="1" customWidth="1" style="16" min="7" max="7"/>
+    <col width="14.83203125" bestFit="1" customWidth="1" style="13" min="7" max="7"/>
     <col width="11" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" min="9" max="11"/>
-    <col width="12.33203125" customWidth="1" style="20" min="12" max="12"/>
-    <col width="15" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="16.5" customWidth="1" min="9" max="9"/>
+    <col width="16.6640625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="15" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" style="17" min="13" max="13"/>
     <col width="18.5" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="18.5" customWidth="1" style="17" min="15" max="15"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+    <col width="9.6640625" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Email  </t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Company</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Personalization_Line (common interest)</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Follow_up_count</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>Responded?</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>First_contact</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>Second_contact</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>Third_contact</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
-        <is>
-          <t>Final</t>
-        </is>
-      </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>Draft_created</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
+        <is>
+          <t>Draft_ID</t>
+        </is>
+      </c>
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>Next_scheduled_sent</t>
         </is>
       </c>
-      <c r="O1" s="9" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>Next_followup_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="18" t="inlineStr">
+        <is>
+          <t>Message_ID</t>
+        </is>
+      </c>
+      <c r="R1" s="18" t="inlineStr">
+        <is>
+          <t>Thread_ID</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>billyphu69@gmail.com</t>
+      <c r="A2" s="19" t="inlineStr">
+        <is>
+          <t>phatvas12@gmail.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Wang</t>
+          <t>Yessir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -639,7 +677,7 @@
           <t>Chess</t>
         </is>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
@@ -647,43 +685,81 @@
           <t>No</t>
         </is>
       </c>
-      <c r="I2" s="12" t="n"/>
-      <c r="J2" s="13" t="n"/>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="14" t="n"/>
+      <c r="I2" s="16" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="n"/>
+      <c r="K2" s="11" t="n"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>r-359562551858783963</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>03/26/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>18e59fd574928309</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>18e59fd557d38f18</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>billyphu69@gmail.com</t>
+      <c r="A3" s="19" t="inlineStr">
+        <is>
+          <t>phatvas12@gmail.com</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>John Wang</t>
+          <t>Chailyboi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>yousuck</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>IB</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Consulting</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Consulting</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
@@ -691,24 +767,58 @@
           <t>No</t>
         </is>
       </c>
-      <c r="I3" s="15" t="n"/>
-      <c r="J3" s="12" t="n"/>
-      <c r="K3" s="14" t="n"/>
-      <c r="L3" s="14" t="inlineStr">
-        <is>
-          <t>Thursday 9th March</t>
+      <c r="I3" s="12" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="11" t="n"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>r-5328498047348345293</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>03/26/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>18e59fd5c95633b9</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>18e59fd58b79bdb3</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>billyphu69@gmail.com</t>
+      <c r="A4" s="19" t="inlineStr">
+        <is>
+          <t>oscarwu@usc.edu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>John Wang</t>
+          <t>oscar wu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -723,7 +833,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -731,7 +841,7 @@
           <t>Art</t>
         </is>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -739,20 +849,59 @@
           <t>No</t>
         </is>
       </c>
-      <c r="I4" s="13" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="12" t="n"/>
-      <c r="L4" s="12" t="n"/>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>r7515473115941161884</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>03/19/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Sent</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>03/26/24 08:52PM</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>18e59fd610b6e669</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>18e59fd5e5e151f9</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="G5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="n"/>
-      <c r="K5" s="17" t="n"/>
-      <c r="L5" s="19" t="n"/>
+      <c r="I5" s="15" t="n"/>
+      <c r="K5" s="14" t="n"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -766,20 +915,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
     <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="12.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="19.83203125" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="18.5" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
-    <col width="12.33203125" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="15.6640625" customWidth="1" style="6" min="8" max="8"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -860,14 +1009,17 @@
           <t>Applied Data Science</t>
         </is>
       </c>
-      <c r="G2" s="4">
-        <f>NOW()</f>
-        <v/>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>25568.66696259259</v>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>2/27/24 10:00pm</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>2/27/24 10:00pm</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>2/27/24 10:00pm</t>
         </is>
